--- a/HagtagPlan.xlsx
+++ b/HagtagPlan.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,64 +12,572 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>#vuithoi</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t>#vuiqua</t>
-  </si>
-  <si>
-    <t>Quá Vui</t>
-  </si>
-  <si>
-    <t>#quavui</t>
-  </si>
-  <si>
-    <t>Cũng Vui</t>
-  </si>
-  <si>
-    <t>Không Vui</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="168">
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>#likeforlikes</t>
+  </si>
+  <si>
+    <t>#gainfollowers</t>
+  </si>
+  <si>
+    <t>#aobabydoll</t>
+  </si>
+  <si>
+    <t>#ansapsaigon</t>
+  </si>
+  <si>
+    <t>#checkinvietnam</t>
+  </si>
+  <si>
+    <t>#instafood</t>
+  </si>
+  <si>
+    <t>Comment2</t>
+  </si>
+  <si>
+    <t>#likelike</t>
+  </si>
+  <si>
+    <t>#aocap</t>
+  </si>
+  <si>
+    <t>#_x0008_ansapquan1</t>
+  </si>
+  <si>
+    <t>#saigonese</t>
+  </si>
+  <si>
+    <t>#foodblogger</t>
+  </si>
+  <si>
+    <t>Comment3</t>
+  </si>
+  <si>
+    <t>#likelikes</t>
+  </si>
+  <si>
+    <t>#aodep</t>
+  </si>
+  <si>
+    <t>#ansapquan2</t>
+  </si>
+  <si>
+    <t>#dalat</t>
+  </si>
+  <si>
+    <t>#tasty#eat</t>
+  </si>
+  <si>
+    <t>Comment4</t>
+  </si>
+  <si>
+    <t>#like4likes</t>
+  </si>
+  <si>
+    <t>#aophongteen</t>
+  </si>
+  <si>
+    <t>#ansapquan3</t>
+  </si>
+  <si>
+    <t>#sapavietnam</t>
+  </si>
+  <si>
+    <t>#foodgasm</t>
+  </si>
+  <si>
+    <t>Comment5</t>
+  </si>
+  <si>
+    <t>#likeforfollow</t>
+  </si>
+  <si>
+    <t>#aothun</t>
+  </si>
+  <si>
+    <t>#ansapquan4</t>
+  </si>
+  <si>
+    <t>#foodblog</t>
+  </si>
+  <si>
+    <t>#followtrain</t>
+  </si>
+  <si>
+    <t>Comment6</t>
+  </si>
+  <si>
+    <t>#likeforlikeback</t>
+  </si>
+  <si>
+    <t>#áothun</t>
+  </si>
+  <si>
+    <t>#ansapquan5</t>
+  </si>
+  <si>
+    <t>#foodstagram</t>
+  </si>
+  <si>
+    <t>Comment7</t>
+  </si>
+  <si>
+    <t>#liketime</t>
+  </si>
+  <si>
+    <t>#aothungiare</t>
+  </si>
+  <si>
+    <t>#followbacks</t>
+  </si>
+  <si>
+    <t>#ansapquan6</t>
+  </si>
+  <si>
+    <t>#foodpornshare</t>
+  </si>
+  <si>
+    <t>Comment8</t>
+  </si>
+  <si>
+    <t>#likesforlikeback</t>
+  </si>
+  <si>
+    <t>#aothungiasi</t>
+  </si>
+  <si>
+    <t>#ansapquan7</t>
+  </si>
+  <si>
+    <t>#instafollow</t>
+  </si>
+  <si>
+    <t>#foodlovers</t>
+  </si>
+  <si>
+    <t>Comment9</t>
+  </si>
+  <si>
+    <t>#like4follow</t>
+  </si>
+  <si>
+    <t>#aothunteen</t>
+  </si>
+  <si>
+    <t>#ansapquan8</t>
+  </si>
+  <si>
+    <t>#followbacknow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#followforfollowback </t>
+  </si>
+  <si>
+    <t>#follow4comments</t>
+  </si>
+  <si>
+    <t>#followers</t>
+  </si>
+  <si>
+    <t>#followforfollowback</t>
+  </si>
+  <si>
+    <t>#foodpics</t>
+  </si>
+  <si>
+    <t>#follow4followback</t>
+  </si>
+  <si>
+    <t>#aoxinh</t>
+  </si>
+  <si>
+    <t>Comment10</t>
+  </si>
+  <si>
+    <t>#ansapquan9</t>
+  </si>
+  <si>
+    <t>#foodies</t>
+  </si>
+  <si>
+    <t>#giamgia</t>
+  </si>
+  <si>
+    <t>Comment11</t>
+  </si>
+  <si>
+    <t>#ansapquan10</t>
+  </si>
+  <si>
+    <t>#instafoodie</t>
+  </si>
+  <si>
+    <t>#follow4_x0008_like</t>
+  </si>
+  <si>
+    <t>#giayconverse</t>
+  </si>
+  <si>
+    <t>#ansapquan11</t>
+  </si>
+  <si>
+    <t>#foodofinstagram</t>
+  </si>
+  <si>
+    <t>Comment12</t>
+  </si>
+  <si>
+    <t>#followparty</t>
+  </si>
+  <si>
+    <t>#giaydepgiare</t>
+  </si>
+  <si>
+    <t>#ansapquan12</t>
+  </si>
+  <si>
+    <t>Comment13</t>
+  </si>
+  <si>
+    <t>#foodiesofinstagram</t>
+  </si>
+  <si>
+    <t>#gainparty</t>
+  </si>
+  <si>
+    <t>#giaysneaker</t>
+  </si>
+  <si>
+    <t>#ansaphanoi</t>
+  </si>
+  <si>
+    <t>Comment14</t>
+  </si>
+  <si>
+    <t>#followfollow</t>
+  </si>
+  <si>
+    <t>#giaythethao</t>
+  </si>
+  <si>
+    <t>#lozisaigon</t>
+  </si>
+  <si>
+    <t>Comment15</t>
+  </si>
+  <si>
+    <t>#foodaddict</t>
+  </si>
+  <si>
+    <t>#follow_me</t>
+  </si>
+  <si>
+    <t>#giaythethaonu</t>
+  </si>
+  <si>
+    <t>Comment16</t>
+  </si>
+  <si>
+    <t>#lozihanoi</t>
+  </si>
+  <si>
+    <t>#instadaily</t>
+  </si>
+  <si>
+    <t>Comment17</t>
+  </si>
+  <si>
+    <t>#hanghieu</t>
+  </si>
+  <si>
+    <t>#lozidanang</t>
+  </si>
+  <si>
+    <t>#foodphotography</t>
+  </si>
+  <si>
+    <t>#hanghieugiare</t>
+  </si>
+  <si>
+    <t>#foody</t>
+  </si>
+  <si>
+    <t>#hàngquảngchâu</t>
+  </si>
+  <si>
+    <t>#foodysg</t>
+  </si>
+  <si>
+    <t>#koreaulzzang</t>
+  </si>
+  <si>
+    <t>#foodyhanoi</t>
+  </si>
+  <si>
+    <t>#ootdvietnam</t>
+  </si>
+  <si>
+    <t>#eatcleanvietnam</t>
+  </si>
+  <si>
+    <t>#orderchina</t>
+  </si>
+  <si>
+    <t>#healthybodywht</t>
+  </si>
+  <si>
+    <t>#orderkorea</t>
+  </si>
+  <si>
+    <t>#hanoifood</t>
+  </si>
+  <si>
+    <t>#orderquangchau</t>
+  </si>
+  <si>
+    <t>#healthyfood</t>
+  </si>
+  <si>
+    <t>#ordertaobao</t>
+  </si>
+  <si>
+    <t>#orderulzzang</t>
+  </si>
+  <si>
+    <t>#orderulzzangtaobao</t>
+  </si>
+  <si>
+    <t>#eatcleanfood</t>
+  </si>
+  <si>
+    <t>#quanao</t>
+  </si>
+  <si>
+    <t>#anvatonline</t>
+  </si>
+  <si>
+    <t>#quanaogiare</t>
+  </si>
+  <si>
+    <t>#quanaonu</t>
+  </si>
+  <si>
+    <t>#hanoian</t>
+  </si>
+  <si>
+    <t>#quanaosale</t>
+  </si>
+  <si>
+    <t>#anvathanoi</t>
+  </si>
+  <si>
+    <t>#snkrvn</t>
+  </si>
+  <si>
+    <t>#giammobung</t>
+  </si>
+  <si>
+    <t>#thankinhgiay</t>
+  </si>
+  <si>
+    <t>#nowhanoi</t>
+  </si>
+  <si>
+    <t>#thankinhgiayvn</t>
+  </si>
+  <si>
+    <t>#vietnamfood</t>
+  </si>
+  <si>
+    <t>#thoitrangnu</t>
+  </si>
+  <si>
+    <t>#foodydongda</t>
+  </si>
+  <si>
+    <t>#ullzang</t>
+  </si>
+  <si>
+    <t>#foodysaigon</t>
+  </si>
+  <si>
+    <t>#ulzzangfashion</t>
+  </si>
+  <si>
+    <t>#foodydanang</t>
+  </si>
+  <si>
+    <t>#ulzzangfashionstyle</t>
+  </si>
+  <si>
+    <t>#giamcanhieuqua</t>
+  </si>
+  <si>
+    <t>#ulzzangstyle</t>
+  </si>
+  <si>
+    <t>#giamcanantoan</t>
+  </si>
+  <si>
+    <t>#vaybabydoll</t>
+  </si>
+  <si>
+    <t>#hanoichendy</t>
+  </si>
+  <si>
+    <t>#vayulzzang</t>
+  </si>
+  <si>
+    <t>#giamcantunhien</t>
+  </si>
+  <si>
+    <t>#vayvintage</t>
+  </si>
+  <si>
+    <t>#ankienglowcarb</t>
+  </si>
+  <si>
+    <t>#vayxinh</t>
+  </si>
+  <si>
+    <t>#monngonhanoi</t>
+  </si>
+  <si>
+    <t>#vayxoe</t>
+  </si>
+  <si>
+    <t>#giamcancenly</t>
+  </si>
+  <si>
+    <t>#vietnamstreetstylegroup</t>
+  </si>
+  <si>
+    <t>#vietnamstreetwa\ear</t>
+  </si>
+  <si>
+    <t>#suachuahoaqua</t>
+  </si>
+  <si>
+    <t>#vietnsmstreetstule</t>
+  </si>
+  <si>
+    <t>#homnayangi</t>
+  </si>
+  <si>
+    <t>#vnstreetwear</t>
+  </si>
+  <si>
+    <t>#vnxk</t>
+  </si>
+  <si>
+    <t>#vnxkchuan</t>
+  </si>
+  <si>
+    <t>#vnxkgiare</t>
+  </si>
+  <si>
+    <t>#vnxkstore</t>
+  </si>
+  <si>
+    <t>#vnxktphcm</t>
+  </si>
+  <si>
+    <t>#vssg</t>
+  </si>
+  <si>
+    <t>#vssgmarketplace</t>
+  </si>
+  <si>
+    <t>_x0008_#outfitoftheday</t>
+  </si>
+  <si>
+    <t>#aosomi</t>
+  </si>
+  <si>
+    <t>#quanaoquangchau</t>
+  </si>
+  <si>
+    <t>#aocroptop</t>
+  </si>
+  <si>
+    <t>#áocroptop</t>
+  </si>
+  <si>
+    <t>#aocroptopdep</t>
+  </si>
+  <si>
+    <t>#váydài</t>
+  </si>
+  <si>
+    <t>#váydựtiệccưới</t>
+  </si>
+  <si>
+    <t>#váyvintage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -79,6 +588,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -287,42 +800,1695 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>5.0</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10.0</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10.0</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/HagtagPlan.xlsx
+++ b/HagtagPlan.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>Comment1</t>
+  </si>
+  <si>
     <t>#vuithoi</t>
   </si>
   <si>
-    <t>Comment1</t>
-  </si>
-  <si>
     <t>hehe</t>
   </si>
   <si>
     <t>Comment2</t>
   </si>
   <si>
+    <t>#vietnamwar</t>
+  </si>
+  <si>
     <t>Comment3</t>
   </si>
   <si>
     <t>Comment4</t>
-  </si>
-  <si>
-    <t>#taolao</t>
   </si>
   <si>
     <t>#vuiqua</t>
@@ -312,13 +312,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -359,7 +359,7 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -369,12 +369,12 @@
     </row>
     <row r="3">
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/HagtagPlan.xlsx
+++ b/HagtagPlan.xlsx
@@ -12,83 +12,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>#vuithoi</t>
+    <t>casauuuuu</t>
   </si>
   <si>
-    <t>Comment1</t>
+    <t>đi chơi</t>
   </si>
   <si>
-    <t>hehe</t>
+    <t>đi ăn</t>
   </si>
   <si>
-    <t>Comment2</t>
-  </si>
-  <si>
-    <t>Comment3</t>
-  </si>
-  <si>
-    <t>Comment4</t>
-  </si>
-  <si>
-    <t>#taolao</t>
-  </si>
-  <si>
-    <t>#vuiqua</t>
-  </si>
-  <si>
-    <t>Quá Vui</t>
-  </si>
-  <si>
-    <t>#quavui</t>
-  </si>
-  <si>
-    <t>Cũng Vui</t>
-  </si>
-  <si>
-    <t>Không Vui</t>
+    <t>đi uống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,36 +311,526 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -358,24 +848,530 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
